--- a/Perk_data/data/event/event_passive_perks.xlsx
+++ b/Perk_data/data/event/event_passive_perks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\event\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885A8061-0F42-44DB-8AC3-FF7F68D465AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B5D8E5-D84F-4C19-97D0-7909FA70A683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FD8951E-DB29-472A-BFC0-A522E648780D}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{5FD8951E-DB29-472A-BFC0-A522E648780D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
   <si>
     <t>Item</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>10%-BASE_STAT</t>
+  </si>
+  <si>
+    <t>5-DEFENCE</t>
   </si>
 </sst>
 </file>
@@ -852,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF85098-BA95-4FF3-866D-32F665E210AE}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1147,8 +1150,8 @@
       <c r="C17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>17</v>
+      <c r="D17" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>8</v>

--- a/Perk_data/data/event/event_passive_perks.xlsx
+++ b/Perk_data/data/event/event_passive_perks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\event\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B5D8E5-D84F-4C19-97D0-7909FA70A683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31748199-4F38-4A3F-9C6C-FEA724863C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{5FD8951E-DB29-472A-BFC0-A522E648780D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FD8951E-DB29-472A-BFC0-A522E648780D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,197 +363,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>30481</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{470DF19C-88A4-48AB-B7FA-8F2A8E3D772B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486775" y="190500"/>
-          <a:ext cx="7246620" cy="4021456"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>READ FIRST</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="2400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>The goal of this drive and excel is to have an up to date list of all the perks in all possible rarities. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>Here the legendaries have the right values and thus are colored in light green.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>The goal is for you to go around your stuff and check if your perks are already updated. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>If they are not updated here, they will not be colored (in the excel) and then you have the oportunity to either dm me on discord with a screeshot of the perk's infos so I change it my self (@komiko44240 on the official battle bay discord sever), or change it yourself (if I can figure out a way to let google drive alow you to do that)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>And please if you change any value that was not modified already, color it with the right (or as close as possible) color (R: 226 G:239 B:218 or hex</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: #e2efda</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>). </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>If  the perk that you have is not part of this list, please dm me directly on discord (@komiko44240 on the official battle bay discord sever) without modifying</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t> any thing here.</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>Note : If</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t> any modification apported to this spread sheet is childish you will be banned from accesing this divre</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1231,6 +1040,5 @@
   </sheetData>
   <autoFilter ref="A1:E21" xr:uid="{BFF85098-BA95-4FF3-866D-32F665E210AE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>